--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,24 @@
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
@@ -67,210 +70,210 @@
     <t>love</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>husband</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>pop</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>simple</t>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>cream</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
@@ -283,25 +286,25 @@
     <t>like</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>time</t>
+    <t>made</t>
   </si>
   <si>
     <t>much</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>product</t>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4418604651162791</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3939393939393939</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8699690402476781</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>562</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>562</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3846153846153846</v>
+        <v>0.2486486486486487</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8839009287925697</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>571</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>571</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -934,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2054054054054054</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -952,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,13 +987,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.7808219178082192</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1013,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7445887445887446</v>
+        <v>0.7559322033898305</v>
       </c>
       <c r="L10">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="M10">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1065,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7220338983050848</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L11">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="M11">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1091,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7142857142857143</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L12">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1117,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7111111111111111</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1143,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6947791164658634</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L14">
-        <v>865</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>866</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>380</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1166,13 +1169,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6938775510204082</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>840</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>840</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1184,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1192,13 +1195,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1218,13 +1221,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6619718309859155</v>
+        <v>0.671875</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1236,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1244,13 +1247,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6617647058823529</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1262,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1270,13 +1273,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6571428571428571</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1288,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1296,13 +1299,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.65625</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1314,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1322,13 +1325,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6457142857142857</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L21">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1340,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1348,13 +1351,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.631578947368421</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1366,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1374,13 +1377,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6307692307692307</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1392,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1400,13 +1403,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.6167664670658682</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L24">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1418,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1426,13 +1429,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6078431372549019</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1452,13 +1455,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5903614457831325</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1478,13 +1481,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5897435897435898</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L27">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="M27">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1504,13 +1507,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5833333333333334</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1522,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1530,13 +1533,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5737704918032787</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1556,13 +1559,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1574,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1582,13 +1585,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5673076923076923</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L31">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M31">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1600,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1608,13 +1611,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5600000000000001</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L32">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="M32">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1626,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1634,13 +1637,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.5263157894736842</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1652,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1660,13 +1663,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.5230769230769231</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1678,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1686,13 +1689,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.5185185185185185</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1704,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1712,13 +1715,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.4722222222222222</v>
+        <v>0.51</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1730,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1738,13 +1741,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.4586466165413534</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L37">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1756,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1764,13 +1767,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.446078431372549</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L38">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1782,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>226</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1790,13 +1793,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.4216867469879518</v>
+        <v>0.5</v>
       </c>
       <c r="L39">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1808,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1816,25 +1819,25 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.4182692307692308</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L40">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M40">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1842,13 +1845,13 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.410958904109589</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L41">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="M41">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1860,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>430</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1868,7 +1871,7 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.4078947368421053</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L42">
         <v>31</v>
@@ -1886,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1894,13 +1897,13 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.4054054054054054</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1912,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>66</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1920,13 +1923,13 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.4007782101167315</v>
+        <v>0.4163424124513619</v>
       </c>
       <c r="L44">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M44">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1938,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1946,13 +1949,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.3684210526315789</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M45">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1964,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1972,13 +1975,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.3663366336633663</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M46">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1990,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1998,13 +2001,13 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.3597122302158273</v>
+        <v>0.4013698630136986</v>
       </c>
       <c r="L47">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="M47">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2016,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>89</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2024,13 +2027,13 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.3513513513513514</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2042,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2050,13 +2053,13 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.3452380952380952</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2068,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2076,13 +2079,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.3425925925925926</v>
+        <v>0.3642384105960265</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2094,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2102,13 +2105,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.3229278794402584</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L51">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="M51">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2120,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>629</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2128,13 +2131,13 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.3178807947019868</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="L52">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M52">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2146,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2154,25 +2157,25 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.3125</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L53">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2180,13 +2183,13 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.3047619047619048</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2198,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2206,13 +2209,13 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.2940397350993377</v>
+        <v>0.317545748116254</v>
       </c>
       <c r="L55">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="M55">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2224,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>533</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2232,25 +2235,25 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.2774936061381074</v>
+        <v>0.298804780876494</v>
       </c>
       <c r="L56">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M56">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>565</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2258,25 +2261,25 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.261744966442953</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L57">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="M57">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>110</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2284,25 +2287,25 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.2541966426858513</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="L58">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="M58">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>311</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2310,13 +2313,13 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.2382445141065831</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L59">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2328,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>243</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2336,25 +2339,25 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.2377049180327869</v>
+        <v>0.2550335570469799</v>
       </c>
       <c r="L60">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="M60">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="N60">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>279</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2362,25 +2365,25 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.2307692307692308</v>
+        <v>0.2518518518518518</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M61">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>100</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2388,13 +2391,13 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.225609756097561</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L62">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="M62">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2406,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>127</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2414,25 +2417,25 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.221978021978022</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L63">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M63">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="N63">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>354</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2440,25 +2443,25 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.2171717171717172</v>
+        <v>0.233890214797136</v>
       </c>
       <c r="L64">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="M64">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="N64">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>155</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2466,7 +2469,7 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.2146892655367232</v>
+        <v>0.2317073170731707</v>
       </c>
       <c r="L65">
         <v>38</v>
@@ -2484,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2492,13 +2495,13 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.2140221402214022</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="L66">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2510,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>213</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2518,25 +2521,25 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.2068965517241379</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="L67">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M67">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2544,25 +2547,25 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.1974789915966386</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L68">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M68">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>191</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2570,25 +2573,25 @@
         <v>80</v>
       </c>
       <c r="K69">
-        <v>0.1948051948051948</v>
+        <v>0.2095671981776766</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>124</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2596,25 +2599,25 @@
         <v>81</v>
       </c>
       <c r="K70">
-        <v>0.1896551724137931</v>
+        <v>0.2085889570552147</v>
       </c>
       <c r="L70">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="M70">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="N70">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>329</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2622,25 +2625,25 @@
         <v>82</v>
       </c>
       <c r="K71">
-        <v>0.1835443037974684</v>
+        <v>0.1970260223048327</v>
       </c>
       <c r="L71">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="M71">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>129</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2648,25 +2651,25 @@
         <v>83</v>
       </c>
       <c r="K72">
-        <v>0.1693363844393593</v>
+        <v>0.194647201946472</v>
       </c>
       <c r="L72">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M72">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2674,13 +2677,13 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <v>0.1672862453531599</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="L73">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M73">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N73">
         <v>0.98</v>
@@ -2692,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2700,25 +2703,25 @@
         <v>85</v>
       </c>
       <c r="K74">
-        <v>0.1612903225806452</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L74">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M74">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>208</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2726,25 +2729,25 @@
         <v>86</v>
       </c>
       <c r="K75">
-        <v>0.1424657534246575</v>
+        <v>0.1497975708502024</v>
       </c>
       <c r="L75">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M75">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N75">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O75">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>313</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2752,25 +2755,25 @@
         <v>87</v>
       </c>
       <c r="K76">
-        <v>0.1360225140712946</v>
+        <v>0.1452054794520548</v>
       </c>
       <c r="L76">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="M76">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>921</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2778,25 +2781,25 @@
         <v>88</v>
       </c>
       <c r="K77">
-        <v>0.134393063583815</v>
+        <v>0.1378986866791745</v>
       </c>
       <c r="L77">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="M77">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="N77">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O77">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>599</v>
+        <v>919</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2804,25 +2807,25 @@
         <v>89</v>
       </c>
       <c r="K78">
-        <v>0.1143410852713178</v>
+        <v>0.1325648414985591</v>
       </c>
       <c r="L78">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="M78">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="N78">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O78">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>457</v>
+        <v>602</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2830,13 +2833,13 @@
         <v>90</v>
       </c>
       <c r="K79">
-        <v>0.1107011070110701</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L79">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M79">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N79">
         <v>0.97</v>
@@ -2848,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2856,25 +2859,25 @@
         <v>91</v>
       </c>
       <c r="K80">
-        <v>0.1033274956217163</v>
+        <v>0.1053555750658472</v>
       </c>
       <c r="L80">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M80">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="N80">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O80">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2882,25 +2885,25 @@
         <v>92</v>
       </c>
       <c r="K81">
-        <v>0.1007751937984496</v>
+        <v>0.09845559845559845</v>
       </c>
       <c r="L81">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M81">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N81">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="O81">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>348</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2908,25 +2911,25 @@
         <v>93</v>
       </c>
       <c r="K82">
-        <v>0.1</v>
+        <v>0.09796672828096119</v>
       </c>
       <c r="L82">
+        <v>53</v>
+      </c>
+      <c r="M82">
         <v>54</v>
       </c>
-      <c r="M82">
-        <v>56</v>
-      </c>
       <c r="N82">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O82">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2934,25 +2937,25 @@
         <v>94</v>
       </c>
       <c r="K83">
-        <v>0.09418282548476455</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L83">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M83">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N83">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="O83">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>327</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -2960,25 +2963,25 @@
         <v>95</v>
       </c>
       <c r="K84">
-        <v>0.07766990291262135</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L84">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M84">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N84">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="O84">
-        <v>0.06000000000000005</v>
+        <v>0.16</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -2986,25 +2989,51 @@
         <v>96</v>
       </c>
       <c r="K85">
-        <v>0.06702412868632708</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="L85">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M85">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="N85">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="O85">
-        <v>0.3</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>696</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86">
+        <v>0.04405874499332443</v>
+      </c>
+      <c r="L86">
+        <v>33</v>
+      </c>
+      <c r="M86">
+        <v>51</v>
+      </c>
+      <c r="N86">
+        <v>0.65</v>
+      </c>
+      <c r="O86">
+        <v>0.35</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
